--- a/spliced/walkingToRunning/2023-03-27_19-49-05/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-49-05/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.4386182389586079</v>
+        <v>0.3322033213479865</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4680532807871848</v>
+        <v>0.1210244501453987</v>
       </c>
       <c r="C2" t="n">
-        <v>2.060500017882589</v>
+        <v>-1.57638051243603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.567447010333154</v>
+        <v>0.6352223770569996</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1997661534507753</v>
+        <v>-0.8322304098058368</v>
       </c>
       <c r="C3" t="n">
-        <v>1.985428574121546</v>
+        <v>-1.049409866333014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6623021185133424</v>
+        <v>0.1475016089714127</v>
       </c>
       <c r="B4" t="n">
-        <v>1.233293045912556</v>
+        <v>-0.1921065187431543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3937855432481396</v>
+        <v>-0.1445163721927848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.065984005429924</v>
+        <v>-1.213809009395561</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5608204790782889</v>
+        <v>-0.2346711329983395</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.052491584707599</v>
+        <v>1.28885372863315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.985182776668951</v>
+        <v>-0.7734762763008961</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.370061922194394</v>
+        <v>-0.09618946024911929</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.959458767460082</v>
+        <v>2.230298755737722</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.586229367909687</v>
+        <v>-0.814207781389884</v>
       </c>
       <c r="B7" t="n">
-        <v>3.220478899587801</v>
+        <v>0.3517244944944581</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.701172142464491</v>
+        <v>1.427822031950592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.049730680920693</v>
+        <v>-0.4451152733739872</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3309398520415856</v>
+        <v>0.1002355693144553</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1050501378054163</v>
+        <v>1.227771341498127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.480390057345936</v>
+        <v>-0.4386182389586079</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.290497637037169</v>
+        <v>-0.4680532807871848</v>
       </c>
       <c r="C9" t="n">
-        <v>3.6122629448847</v>
+        <v>2.060500017882589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.746594315252966</v>
+        <v>-1.567447010333154</v>
       </c>
       <c r="B10" t="n">
-        <v>5.263269504314723</v>
+        <v>-0.1997661534507753</v>
       </c>
       <c r="C10" t="n">
-        <v>2.846692088896868</v>
+        <v>1.985428574121546</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02857317537218518</v>
+        <v>-0.6623021185133424</v>
       </c>
       <c r="B11" t="n">
-        <v>1.524775265437166</v>
+        <v>1.233293045912556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3577531473285853</v>
+        <v>0.3937855432481396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.081077046200642</v>
+        <v>1.065984005429924</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.786933429350092</v>
+        <v>-0.5608204790782889</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.819117558486549</v>
+        <v>-2.052491584707599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.00775977923788</v>
+        <v>1.985182776668951</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.871817700754</v>
+        <v>-1.370061922194394</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.02260407941595</v>
+        <v>-2.959458767460082</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1797645285649305</v>
+        <v>3.586229367909687</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1183369633207527</v>
+        <v>3.220478899587801</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06624912005396677</v>
+        <v>-3.701172142464491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-7.62000698970656</v>
+        <v>-2.049730680920693</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.875881371537381</v>
+        <v>-0.3309398520415856</v>
       </c>
       <c r="C15" t="n">
-        <v>5.026607214496812</v>
+        <v>0.1050501378054163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.768456836642528</v>
+        <v>-6.480390057345936</v>
       </c>
       <c r="B16" t="n">
-        <v>-15.13744506739117</v>
+        <v>-0.290497637037169</v>
       </c>
       <c r="C16" t="n">
-        <v>5.25606083264814</v>
+        <v>3.6122629448847</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.952609313926157</v>
+        <v>-3.746594315252966</v>
       </c>
       <c r="B17" t="n">
-        <v>-11.08443266002066</v>
+        <v>5.263269504314723</v>
       </c>
       <c r="C17" t="n">
-        <v>3.078852102841224</v>
+        <v>2.846692088896868</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.517102752240144</v>
+        <v>0.02857317537218518</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1121426887317769</v>
+        <v>1.524775265437166</v>
       </c>
       <c r="C18" t="n">
-        <v>1.888300155020016</v>
+        <v>0.3577531473285853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.696813958550474</v>
+        <v>4.081077046200642</v>
       </c>
       <c r="B19" t="n">
-        <v>4.523056784559633</v>
+        <v>-3.786933429350092</v>
       </c>
       <c r="C19" t="n">
-        <v>1.050867166615984</v>
+        <v>-1.819117558486549</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.479645563261123</v>
+        <v>5.00775977923788</v>
       </c>
       <c r="B20" t="n">
-        <v>1.03966360149645</v>
+        <v>-1.871817700754</v>
       </c>
       <c r="C20" t="n">
-        <v>1.598440124298719</v>
+        <v>-3.02260407941595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.1797645285649305</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1183369633207527</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.06624912005396677</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-7.62000698970656</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-6.875881371537381</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.026607214496812</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-3.768456836642528</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-15.13744506739117</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.25606083264814</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.952609313926157</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-11.08443266002066</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.078852102841224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.517102752240144</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1121426887317769</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.888300155020016</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.696813958550474</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.523056784559633</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.050867166615984</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-3.479645563261123</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.03966360149645</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.598440124298719</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>-4.971113100874858</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>5.150270287760582</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>0.4502635256288277</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-2.691276774793723</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.824305781253101</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.586581079487865</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.383527442585964</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.926498572838676</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.056850963437613</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.296718087898288</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-3.505119464119212</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-4.962326313638459</v>
       </c>
     </row>
   </sheetData>
